--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itga3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itga3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H2">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I2">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J2">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>19.182452531285</v>
+        <v>11.8443677495535</v>
       </c>
       <c r="R2">
-        <v>76.72981012513999</v>
+        <v>47.377470998214</v>
       </c>
       <c r="S2">
-        <v>0.09372607820328144</v>
+        <v>0.09696706532839076</v>
       </c>
       <c r="T2">
-        <v>0.06349245208531773</v>
+        <v>0.07314657432507587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H3">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I3">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J3">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>0.7048797102823334</v>
+        <v>0.3328158250930001</v>
       </c>
       <c r="R3">
-        <v>4.229278261694</v>
+        <v>1.996894950558</v>
       </c>
       <c r="S3">
-        <v>0.003444064868247727</v>
+        <v>0.002724685229005303</v>
       </c>
       <c r="T3">
-        <v>0.003499646968344329</v>
+        <v>0.003083027055746934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H4">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I4">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J4">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>0.2342928089686666</v>
+        <v>0.010484925724</v>
       </c>
       <c r="R4">
-        <v>1.405756853812</v>
+        <v>0.062909554344</v>
       </c>
       <c r="S4">
-        <v>0.001144762177831528</v>
+        <v>8.583763178754386E-05</v>
       </c>
       <c r="T4">
-        <v>0.001163236941922545</v>
+        <v>9.71267206887059E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H5">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I5">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J5">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>6.868740311828</v>
+        <v>4.473390138228</v>
       </c>
       <c r="R5">
-        <v>27.474961247312</v>
+        <v>17.893560552912</v>
       </c>
       <c r="S5">
-        <v>0.03356088542768296</v>
+        <v>0.03662259758772565</v>
       </c>
       <c r="T5">
-        <v>0.02273500556948936</v>
+        <v>0.02762605578869255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H6">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I6">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J6">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>12.68185708053</v>
+        <v>0.029522477178</v>
       </c>
       <c r="R6">
-        <v>76.09114248317998</v>
+        <v>0.177134863068</v>
       </c>
       <c r="S6">
-        <v>0.0619639603723273</v>
+        <v>0.0002416936077726029</v>
       </c>
       <c r="T6">
-        <v>0.06296396681226084</v>
+        <v>0.0002734803727166871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H7">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I7">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J7">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>0.2671788991969999</v>
+        <v>0.025908023625</v>
       </c>
       <c r="R7">
-        <v>1.603073395182</v>
+        <v>0.15544814175</v>
       </c>
       <c r="S7">
-        <v>0.001305444669265509</v>
+        <v>0.0002121029228824451</v>
       </c>
       <c r="T7">
-        <v>0.001326512610507454</v>
+        <v>0.0002399980162436265</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I8">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J8">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>41.03646735279334</v>
+        <v>53.664706622478</v>
       </c>
       <c r="R8">
-        <v>246.21880411676</v>
+        <v>321.988239734868</v>
       </c>
       <c r="S8">
-        <v>0.200505495427214</v>
+        <v>0.4393403871715241</v>
       </c>
       <c r="T8">
-        <v>0.2037413568128401</v>
+        <v>0.4971210200404054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I9">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J9">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
         <v>1.507928830866223</v>
@@ -1013,10 +1013,10 @@
         <v>13.571359477796</v>
       </c>
       <c r="S9">
-        <v>0.007367788623287302</v>
+        <v>0.01234506024677264</v>
       </c>
       <c r="T9">
-        <v>0.01123004071000903</v>
+        <v>0.02095296422158857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I10">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J10">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>0.5012158476897778</v>
+        <v>0.04750531854755556</v>
       </c>
       <c r="R10">
-        <v>4.510942629208</v>
+        <v>0.427547866928</v>
       </c>
       <c r="S10">
-        <v>0.00244895670460701</v>
+        <v>0.0003889149192636714</v>
       </c>
       <c r="T10">
-        <v>0.003732718851740852</v>
+        <v>0.0006600956354752564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I11">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J11">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>14.69409800970133</v>
+        <v>20.268128654224</v>
       </c>
       <c r="R11">
-        <v>88.16458805820801</v>
+        <v>121.608771925344</v>
       </c>
       <c r="S11">
-        <v>0.0717958340800175</v>
+        <v>0.1659304233754862</v>
       </c>
       <c r="T11">
-        <v>0.07295451238284079</v>
+        <v>0.1877530582954439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I12">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J12">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>27.12993102468</v>
+        <v>0.133761050824</v>
       </c>
       <c r="R12">
-        <v>244.16937922212</v>
+        <v>1.203849457416</v>
       </c>
       <c r="S12">
-        <v>0.132557712978657</v>
+        <v>0.001095070402059574</v>
       </c>
       <c r="T12">
-        <v>0.2020454968633215</v>
+        <v>0.001858635802160086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I13">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J13">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>0.5715681118653333</v>
+        <v>0.1173846098333333</v>
       </c>
       <c r="R13">
-        <v>5.144113006788</v>
+        <v>1.0564614885</v>
       </c>
       <c r="S13">
-        <v>0.002792700123397805</v>
+        <v>0.0009610003143211743</v>
       </c>
       <c r="T13">
-        <v>0.004256655243539232</v>
+        <v>0.001631081971282483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H14">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I14">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J14">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>28.485520257435</v>
+        <v>21.03840893711025</v>
       </c>
       <c r="R14">
-        <v>113.94208102974</v>
+        <v>84.15363574844099</v>
       </c>
       <c r="S14">
-        <v>0.1391811654404059</v>
+        <v>0.1722365276852429</v>
       </c>
       <c r="T14">
-        <v>0.09428489538138236</v>
+        <v>0.1299256807572263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H15">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I15">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J15">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>1.046730872059</v>
+        <v>0.5911599147461667</v>
       </c>
       <c r="R15">
-        <v>6.280385232354</v>
+        <v>3.546959488477</v>
       </c>
       <c r="S15">
-        <v>0.005114360607038545</v>
+        <v>0.004839687798015084</v>
       </c>
       <c r="T15">
-        <v>0.005196898803636208</v>
+        <v>0.005476187951477958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H16">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I16">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J16">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>0.3479196700819999</v>
+        <v>0.01862371717266667</v>
       </c>
       <c r="R16">
-        <v>2.087518020492</v>
+        <v>0.111742303036</v>
       </c>
       <c r="S16">
-        <v>0.001699946664973239</v>
+        <v>0.0001524680116258226</v>
       </c>
       <c r="T16">
-        <v>0.00172738128345634</v>
+        <v>0.0001725201135068194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H17">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I17">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J17">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>10.199928344748</v>
+        <v>7.945802853581999</v>
       </c>
       <c r="R17">
-        <v>40.799713378992</v>
+        <v>31.783211414328</v>
       </c>
       <c r="S17">
-        <v>0.04983717697977159</v>
+        <v>0.06505042739987911</v>
       </c>
       <c r="T17">
-        <v>0.03376098341160361</v>
+        <v>0.04907043341539657</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H18">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I18">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J18">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>18.83227893723</v>
+        <v>0.05243892800699999</v>
       </c>
       <c r="R18">
-        <v>112.99367362338</v>
+        <v>0.314633568042</v>
       </c>
       <c r="S18">
-        <v>0.09201511879349815</v>
+        <v>0.000429305224670792</v>
       </c>
       <c r="T18">
-        <v>0.09350010637033875</v>
+        <v>0.0004857660652848173</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H19">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I19">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J19">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>0.396754791027</v>
+        <v>0.0460188004375</v>
       </c>
       <c r="R19">
-        <v>2.380528746162</v>
+        <v>0.276112802625</v>
       </c>
       <c r="S19">
-        <v>0.001938556631936163</v>
+        <v>0.0003767451435747135</v>
       </c>
       <c r="T19">
-        <v>0.001969842061473972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H20">
-        <v>2.033836</v>
-      </c>
-      <c r="I20">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J20">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.939895</v>
-      </c>
-      <c r="N20">
-        <v>27.87979</v>
-      </c>
-      <c r="O20">
-        <v>0.4802889349037177</v>
-      </c>
-      <c r="P20">
-        <v>0.4091514124048364</v>
-      </c>
-      <c r="Q20">
-        <v>9.450486762406666</v>
-      </c>
-      <c r="R20">
-        <v>56.70292057444</v>
-      </c>
-      <c r="S20">
-        <v>0.04617538137565081</v>
-      </c>
-      <c r="T20">
-        <v>0.0469205835619633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H21">
-        <v>2.033836</v>
-      </c>
-      <c r="I21">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J21">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.5122363333333334</v>
-      </c>
-      <c r="N21">
-        <v>1.536709</v>
-      </c>
-      <c r="O21">
-        <v>0.01764872999083942</v>
-      </c>
-      <c r="P21">
-        <v>0.02255205859890708</v>
-      </c>
-      <c r="Q21">
-        <v>0.3472682317471111</v>
-      </c>
-      <c r="R21">
-        <v>3.125414085724</v>
-      </c>
-      <c r="S21">
-        <v>0.001696763716378902</v>
-      </c>
-      <c r="T21">
-        <v>0.002586220450187073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H22">
-        <v>2.033836</v>
-      </c>
-      <c r="I22">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J22">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1702606666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.510782</v>
-      </c>
-      <c r="O22">
-        <v>0.005866207331499286</v>
-      </c>
-      <c r="P22">
-        <v>0.00749600971639195</v>
-      </c>
-      <c r="Q22">
-        <v>0.1154274244168889</v>
-      </c>
-      <c r="R22">
-        <v>1.038846819752</v>
-      </c>
-      <c r="S22">
-        <v>0.0005639820971826467</v>
-      </c>
-      <c r="T22">
-        <v>0.0008596258979334757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H23">
-        <v>2.033836</v>
-      </c>
-      <c r="I23">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J23">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.991516</v>
-      </c>
-      <c r="N23">
-        <v>9.983032</v>
-      </c>
-      <c r="O23">
-        <v>0.1719790502865958</v>
-      </c>
-      <c r="P23">
-        <v>0.1465065426562639</v>
-      </c>
-      <c r="Q23">
-        <v>3.383974978458666</v>
-      </c>
-      <c r="R23">
-        <v>20.303849870752</v>
-      </c>
-      <c r="S23">
-        <v>0.01653421026074178</v>
-      </c>
-      <c r="T23">
-        <v>0.01680104789733903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H24">
-        <v>2.033836</v>
-      </c>
-      <c r="I24">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J24">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>9.215909999999999</v>
-      </c>
-      <c r="N24">
-        <v>27.64773</v>
-      </c>
-      <c r="O24">
-        <v>0.317527470477254</v>
-      </c>
-      <c r="P24">
-        <v>0.4057458029378114</v>
-      </c>
-      <c r="Q24">
-        <v>6.247883176919999</v>
-      </c>
-      <c r="R24">
-        <v>56.23094859227999</v>
-      </c>
-      <c r="S24">
-        <v>0.03052735755711747</v>
-      </c>
-      <c r="T24">
-        <v>0.04653003576295228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H25">
-        <v>2.033836</v>
-      </c>
-      <c r="I25">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J25">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.194159</v>
-      </c>
-      <c r="N25">
-        <v>0.5824769999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.006689607010093757</v>
-      </c>
-      <c r="P25">
-        <v>0.008548173685789306</v>
-      </c>
-      <c r="Q25">
-        <v>0.1316291879746666</v>
-      </c>
-      <c r="R25">
-        <v>1.184662691772</v>
-      </c>
-      <c r="S25">
-        <v>0.0006431444334777977</v>
-      </c>
-      <c r="T25">
-        <v>0.0009802857464644352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.030868</v>
-      </c>
-      <c r="I26">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J26">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>13.939895</v>
-      </c>
-      <c r="N26">
-        <v>27.87979</v>
-      </c>
-      <c r="O26">
-        <v>0.4802889349037177</v>
-      </c>
-      <c r="P26">
-        <v>0.4091514124048364</v>
-      </c>
-      <c r="Q26">
-        <v>0.1434322262866667</v>
-      </c>
-      <c r="R26">
-        <v>0.8605933577200001</v>
-      </c>
-      <c r="S26">
-        <v>0.0007008144571654693</v>
-      </c>
-      <c r="T26">
-        <v>0.000712124563332876</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.030868</v>
-      </c>
-      <c r="I27">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J27">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.5122363333333334</v>
-      </c>
-      <c r="N27">
-        <v>1.536709</v>
-      </c>
-      <c r="O27">
-        <v>0.01764872999083942</v>
-      </c>
-      <c r="P27">
-        <v>0.02255205859890708</v>
-      </c>
-      <c r="Q27">
-        <v>0.005270570379111113</v>
-      </c>
-      <c r="R27">
-        <v>0.04743513341200001</v>
-      </c>
-      <c r="S27">
-        <v>2.575217588693677E-05</v>
-      </c>
-      <c r="T27">
-        <v>3.925166673044168E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.030868</v>
-      </c>
-      <c r="I28">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J28">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.1702606666666666</v>
-      </c>
-      <c r="N28">
-        <v>0.510782</v>
-      </c>
-      <c r="O28">
-        <v>0.005866207331499286</v>
-      </c>
-      <c r="P28">
-        <v>0.00749600971639195</v>
-      </c>
-      <c r="Q28">
-        <v>0.001751868752888889</v>
-      </c>
-      <c r="R28">
-        <v>0.015766818776</v>
-      </c>
-      <c r="S28">
-        <v>8.559686904860539E-06</v>
-      </c>
-      <c r="T28">
-        <v>1.304674133873652E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.030868</v>
-      </c>
-      <c r="I29">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J29">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>4.991516</v>
-      </c>
-      <c r="N29">
-        <v>9.983032</v>
-      </c>
-      <c r="O29">
-        <v>0.1719790502865958</v>
-      </c>
-      <c r="P29">
-        <v>0.1465065426562639</v>
-      </c>
-      <c r="Q29">
-        <v>0.05135937196266667</v>
-      </c>
-      <c r="R29">
-        <v>0.308156231776</v>
-      </c>
-      <c r="S29">
-        <v>0.000250943538381943</v>
-      </c>
-      <c r="T29">
-        <v>0.0002549933949910716</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.030868</v>
-      </c>
-      <c r="I30">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J30">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>9.215909999999999</v>
-      </c>
-      <c r="N30">
-        <v>27.64773</v>
-      </c>
-      <c r="O30">
-        <v>0.317527470477254</v>
-      </c>
-      <c r="P30">
-        <v>0.4057458029378114</v>
-      </c>
-      <c r="Q30">
-        <v>0.09482556995999999</v>
-      </c>
-      <c r="R30">
-        <v>0.85343012964</v>
-      </c>
-      <c r="S30">
-        <v>0.0004633207756540361</v>
-      </c>
-      <c r="T30">
-        <v>0.0007061971289380319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.030868</v>
-      </c>
-      <c r="I31">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J31">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.194159</v>
-      </c>
-      <c r="N31">
-        <v>0.5824769999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.006689607010093757</v>
-      </c>
-      <c r="P31">
-        <v>0.008548173685789306</v>
-      </c>
-      <c r="Q31">
-        <v>0.001997766670666667</v>
-      </c>
-      <c r="R31">
-        <v>0.017979900036</v>
-      </c>
-      <c r="S31">
-        <v>9.761152016481499E-06</v>
-      </c>
-      <c r="T31">
-        <v>1.487802380421243E-05</v>
+        <v>0.0004262934515874839</v>
       </c>
     </row>
   </sheetData>
